--- a/users.xlsx
+++ b/users.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Infinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Infinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19618A5C-7EBC-40F6-9DE0-BEE619AF0BC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -71,19 +72,28 @@
     <t>premaagusp</t>
   </si>
   <si>
-    <t>Siswa</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
     <t>ryanardito</t>
+  </si>
+  <si>
+    <t>premaaguspras</t>
+  </si>
+  <si>
+    <t>devamahayana</t>
+  </si>
+  <si>
+    <t>Siswa RPL3</t>
+  </si>
+  <si>
+    <t>Siswa RPL4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,16 +404,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,17 +538,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
@@ -546,7 +546,40 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
